--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2575.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2575.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9160957229213087</v>
+        <v>0.7034338116645813</v>
       </c>
       <c r="B1">
-        <v>1.42674241423096</v>
+        <v>3.904030799865723</v>
       </c>
       <c r="C1">
-        <v>3.381025989646514</v>
+        <v>5.734167575836182</v>
       </c>
       <c r="D1">
-        <v>2.234228484777601</v>
+        <v>1.23979640007019</v>
       </c>
       <c r="E1">
-        <v>0.8742034939023621</v>
+        <v>0.7141823768615723</v>
       </c>
     </row>
   </sheetData>
